--- a/app/outputs/geo_match.xlsx
+++ b/app/outputs/geo_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>AHSA Platform</t>
   </si>
@@ -106,6 +106,9 @@
     <t>ShockTalk</t>
   </si>
   <si>
+    <t>Sicangu Online Marketplace</t>
+  </si>
+  <si>
     <t>Sisters of Code</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t>eggXYt</t>
   </si>
   <si>
-    <t>Org_y</t>
+    <t>Org_x</t>
   </si>
   <si>
     <t>American Student Assistance (ASA)</t>
@@ -554,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -690,10 +693,13 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -795,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -813,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -821,10 +827,13 @@
       <c r="AQ2">
         <v>0</v>
       </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -920,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -952,10 +961,13 @@
       <c r="AQ3">
         <v>1</v>
       </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1051,22 +1063,22 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ4">
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -1075,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1083,10 +1095,13 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1179,25 +1194,25 @@
         <v>1</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>1</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ5">
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -1206,18 +1221,21 @@
         <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1319,16 +1337,16 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -1345,10 +1363,13 @@
       <c r="AQ6">
         <v>1</v>
       </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1441,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1476,10 +1497,13 @@
       <c r="AQ7">
         <v>0</v>
       </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1572,25 +1596,25 @@
         <v>1</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ8">
         <v>1</v>
       </c>
       <c r="AK8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -1607,10 +1631,13 @@
       <c r="AQ8">
         <v>1</v>
       </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1706,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9">
         <v>1</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -1730,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -1738,10 +1765,13 @@
       <c r="AQ9">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1834,25 +1864,25 @@
         <v>1</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10">
         <v>1</v>
       </c>
       <c r="AK10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -1864,15 +1894,18 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1965,25 +1998,25 @@
         <v>1</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ11">
         <v>1</v>
       </c>
       <c r="AK11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -2000,10 +2033,13 @@
       <c r="AQ11">
         <v>1</v>
       </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2096,25 +2132,25 @@
         <v>1</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12">
         <v>1</v>
       </c>
       <c r="AK12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2131,10 +2167,13 @@
       <c r="AQ12">
         <v>1</v>
       </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2236,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2257,15 +2296,18 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0</v>
       </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2358,25 +2400,25 @@
         <v>1</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -2393,10 +2435,13 @@
       <c r="AQ14">
         <v>1</v>
       </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2489,25 +2534,25 @@
         <v>1</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ15">
         <v>1</v>
       </c>
       <c r="AK15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -2524,10 +2569,13 @@
       <c r="AQ15">
         <v>1</v>
       </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2629,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -2647,18 +2695,21 @@
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2751,25 +2802,25 @@
         <v>1</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ17">
         <v>1</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -2786,10 +2837,13 @@
       <c r="AQ17">
         <v>1</v>
       </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2882,25 +2936,25 @@
         <v>1</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -2917,10 +2971,13 @@
       <c r="AQ18">
         <v>1</v>
       </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3013,25 +3070,25 @@
         <v>1</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ19">
         <v>1</v>
       </c>
       <c r="AK19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -3046,6 +3103,9 @@
         <v>1</v>
       </c>
       <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
         <v>1</v>
       </c>
     </row>

--- a/app/outputs/geo_match.xlsx
+++ b/app/outputs/geo_match.xlsx
@@ -2704,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2725,25 +2725,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -3614,7 +3614,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Investigaciones Científicas y Técnicas</t>
+          <t>Consejo Nacional de Investigaciones CientÃ­ficas y TÃ©cnicas</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4883,112 +4883,112 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -8678,76 +8678,76 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
@@ -8756,34 +8756,34 @@
         <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -10754,13 +10754,13 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -10775,25 +10775,25 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="AE90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF90" t="n">
         <v>0</v>
@@ -10844,10 +10844,10 @@
         <v>0</v>
       </c>
       <c r="AH90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ90" t="n">
         <v>0</v>
